--- a/files/separadas/repeat_p28.xlsx
+++ b/files/separadas/repeat_p28.xlsx
@@ -91,13 +91,13 @@
     <t>c4</t>
   </si>
   <si>
+    <t>l1</t>
+  </si>
+  <si>
     <t>c5</t>
   </si>
   <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
+    <t>l2</t>
   </si>
   <si>
     <t>nota_iniciativa</t>

--- a/files/separadas/repeat_p28.xlsx
+++ b/files/separadas/repeat_p28.xlsx
@@ -15692,19 +15692,19 @@
         <v>661</v>
       </c>
       <c r="V198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA198">
         <v>0</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="AC198">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:29">

--- a/files/separadas/repeat_p28.xlsx
+++ b/files/separadas/repeat_p28.xlsx
@@ -15692,19 +15692,19 @@
         <v>661</v>
       </c>
       <c r="V198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z198">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA198">
         <v>0</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="AC198">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:29">

--- a/files/separadas/repeat_p28.xlsx
+++ b/files/separadas/repeat_p28.xlsx
@@ -15692,28 +15692,28 @@
         <v>661</v>
       </c>
       <c r="V198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y198">
         <v>0</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC198">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -15760,28 +15760,28 @@
         <v>661</v>
       </c>
       <c r="V199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y199">
         <v>0</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC199">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -15828,28 +15828,28 @@
         <v>661</v>
       </c>
       <c r="V200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y200">
         <v>0</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB200">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC200">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="201" spans="1:29">

--- a/files/separadas/repeat_p28.xlsx
+++ b/files/separadas/repeat_p28.xlsx
@@ -11091,28 +11091,28 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB115" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="116">

--- a/files/separadas/repeat_p28.xlsx
+++ b/files/separadas/repeat_p28.xlsx
@@ -1725,13 +1725,13 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17">
@@ -1803,13 +1803,13 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
@@ -10711,13 +10711,13 @@
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X132" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="133">
@@ -10787,13 +10787,13 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X133" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="134">
@@ -10865,13 +10865,13 @@
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W134" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X134" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="135">
@@ -11177,13 +11177,13 @@
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W138" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X138" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="139">
@@ -11253,13 +11253,13 @@
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -11329,13 +11329,13 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X140" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="141">
@@ -11407,13 +11407,13 @@
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X141" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="142">
@@ -11485,13 +11485,13 @@
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W142" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X142" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="143">
@@ -23472,13 +23472,13 @@
       <c r="T296" t="inlineStr"/>
       <c r="U296" t="inlineStr"/>
       <c r="V296" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W296" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X296" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="297">
@@ -23550,13 +23550,13 @@
       <c r="T297" t="inlineStr"/>
       <c r="U297" t="inlineStr"/>
       <c r="V297" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W297" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X297" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="298">
@@ -23628,13 +23628,13 @@
       <c r="T298" t="inlineStr"/>
       <c r="U298" t="inlineStr"/>
       <c r="V298" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W298" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X298" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="299">
@@ -23706,13 +23706,13 @@
       <c r="T299" t="inlineStr"/>
       <c r="U299" t="inlineStr"/>
       <c r="V299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W299" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X299" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="300">
@@ -23784,13 +23784,13 @@
       <c r="T300" t="inlineStr"/>
       <c r="U300" t="inlineStr"/>
       <c r="V300" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W300" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X300" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="301">
@@ -23862,13 +23862,13 @@
       <c r="T301" t="inlineStr"/>
       <c r="U301" t="inlineStr"/>
       <c r="V301" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W301" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X301" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="302">
@@ -23940,13 +23940,13 @@
       <c r="T302" t="inlineStr"/>
       <c r="U302" t="inlineStr"/>
       <c r="V302" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W302" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X302" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="303">
@@ -24018,13 +24018,13 @@
       <c r="T303" t="inlineStr"/>
       <c r="U303" t="inlineStr"/>
       <c r="V303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W303" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X303" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="304">
@@ -25424,13 +25424,13 @@
       <c r="T321" t="inlineStr"/>
       <c r="U321" t="inlineStr"/>
       <c r="V321" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W321" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X321" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="322">
@@ -25580,13 +25580,13 @@
       <c r="T323" t="inlineStr"/>
       <c r="U323" t="inlineStr"/>
       <c r="V323" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W323" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X323" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="324">
